--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H2">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I2">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J2">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>91.20841753307677</v>
+        <v>1168.418191839543</v>
       </c>
       <c r="R2">
-        <v>820.875757797691</v>
+        <v>10515.76372655588</v>
       </c>
       <c r="S2">
-        <v>5.82231765194846E-05</v>
+        <v>0.0005849670194289695</v>
       </c>
       <c r="T2">
-        <v>5.822317651948461E-05</v>
+        <v>0.0005849670194289695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H3">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I3">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J3">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>1460.61572377648</v>
+        <v>4475.620933913525</v>
       </c>
       <c r="R3">
-        <v>13145.54151398832</v>
+        <v>40280.58840522172</v>
       </c>
       <c r="S3">
-        <v>0.0009323885822460667</v>
+        <v>0.002240713689747853</v>
       </c>
       <c r="T3">
-        <v>0.000932388582246067</v>
+        <v>0.002240713689747853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H4">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I4">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J4">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>1984.639914653831</v>
+        <v>12199.98210852237</v>
       </c>
       <c r="R4">
-        <v>17861.75923188448</v>
+        <v>109799.8389767014</v>
       </c>
       <c r="S4">
-        <v>0.00126690105150218</v>
+        <v>0.006107904875970252</v>
       </c>
       <c r="T4">
-        <v>0.00126690105150218</v>
+        <v>0.006107904875970252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H5">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I5">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J5">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>484.2637206898096</v>
+        <v>3038.011702572811</v>
       </c>
       <c r="R5">
-        <v>4358.373486208287</v>
+        <v>27342.10532315531</v>
       </c>
       <c r="S5">
-        <v>0.0003091312496621281</v>
+        <v>0.001520976533107932</v>
       </c>
       <c r="T5">
-        <v>0.0003091312496621281</v>
+        <v>0.001520976533107932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H6">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I6">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J6">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>5808.21653980532</v>
+        <v>20053.46364251135</v>
       </c>
       <c r="R6">
-        <v>52273.94885824789</v>
+        <v>180481.1727826021</v>
       </c>
       <c r="S6">
-        <v>0.003707693061748787</v>
+        <v>0.010039739999014</v>
       </c>
       <c r="T6">
-        <v>0.003707693061748788</v>
+        <v>0.010039739999014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H7">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I7">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J7">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>1290.970331354976</v>
+        <v>6071.383635819326</v>
       </c>
       <c r="R7">
-        <v>11618.73298219478</v>
+        <v>54642.45272237394</v>
       </c>
       <c r="S7">
-        <v>0.0008240949192725536</v>
+        <v>0.003039630171850989</v>
       </c>
       <c r="T7">
-        <v>0.0008240949192725538</v>
+        <v>0.003039630171850989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J8">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>11134.63768637811</v>
+        <v>46550.26465004521</v>
       </c>
       <c r="R8">
-        <v>100211.739177403</v>
+        <v>418952.3818504068</v>
       </c>
       <c r="S8">
-        <v>0.007107830538331556</v>
+        <v>0.0233053283115145</v>
       </c>
       <c r="T8">
-        <v>0.007107830538331557</v>
+        <v>0.02330532831151449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J9">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>178310.5915348229</v>
@@ -1013,10 +1013,10 @@
         <v>1604795.323813406</v>
       </c>
       <c r="S9">
-        <v>0.1138251197315286</v>
+        <v>0.08927096136574532</v>
       </c>
       <c r="T9">
-        <v>0.1138251197315286</v>
+        <v>0.08927096136574532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J10">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>242282.9710819272</v>
+        <v>486052.3396879151</v>
       </c>
       <c r="R10">
-        <v>2180546.739737345</v>
+        <v>4374471.057191236</v>
       </c>
       <c r="S10">
-        <v>0.1546620868392165</v>
+        <v>0.2433414597782664</v>
       </c>
       <c r="T10">
-        <v>0.1546620868392165</v>
+        <v>0.2433414597782664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J11">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>59118.45880434216</v>
+        <v>121035.6443886316</v>
       </c>
       <c r="R11">
-        <v>532066.1292390794</v>
+        <v>1089320.799497684</v>
       </c>
       <c r="S11">
-        <v>0.03773845173091427</v>
+        <v>0.06059633497422096</v>
       </c>
       <c r="T11">
-        <v>0.03773845173091427</v>
+        <v>0.06059633497422096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I12">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J12">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>709061.6033471639</v>
+        <v>798938.2964324458</v>
       </c>
       <c r="R12">
-        <v>6381554.430124476</v>
+        <v>7190444.667892012</v>
       </c>
       <c r="S12">
-        <v>0.4526316760171736</v>
+        <v>0.3999873994053041</v>
       </c>
       <c r="T12">
-        <v>0.4526316760171736</v>
+        <v>0.3999873994053041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I13">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J13">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>157600.4418483441</v>
+        <v>241886.4384457956</v>
       </c>
       <c r="R13">
-        <v>1418403.976635096</v>
+        <v>2176977.94601216</v>
       </c>
       <c r="S13">
-        <v>0.1006047313775313</v>
+        <v>0.1211001248749449</v>
       </c>
       <c r="T13">
-        <v>0.1006047313775313</v>
+        <v>0.1211001248749449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H14">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>8.835257377248555</v>
+        <v>7.524472811759555</v>
       </c>
       <c r="R14">
-        <v>79.51731639523699</v>
+        <v>67.72025530583599</v>
       </c>
       <c r="S14">
-        <v>5.640013978798259E-06</v>
+        <v>3.767117342241593E-06</v>
       </c>
       <c r="T14">
-        <v>5.640013978798259E-06</v>
+        <v>3.767117342241592E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H15">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>141.4882112623148</v>
+        <v>28.82246122850422</v>
       </c>
       <c r="R15">
-        <v>1273.393901360833</v>
+        <v>259.402151056538</v>
       </c>
       <c r="S15">
-        <v>9.031943895709416E-05</v>
+        <v>1.442992702030827E-05</v>
       </c>
       <c r="T15">
-        <v>9.031943895709416E-05</v>
+        <v>1.442992702030827E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H16">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>192.2498484393526</v>
+        <v>78.56641938705467</v>
       </c>
       <c r="R16">
-        <v>1730.248635954174</v>
+        <v>707.097774483492</v>
       </c>
       <c r="S16">
-        <v>0.0001227232876556519</v>
+        <v>3.933417375477087E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001227232876556519</v>
+        <v>3.933417375477087E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H17">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I17">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J17">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>46.91008490753433</v>
+        <v>19.56443045603978</v>
       </c>
       <c r="R17">
-        <v>422.190764167809</v>
+        <v>176.079874104358</v>
       </c>
       <c r="S17">
-        <v>2.994519834887928E-05</v>
+        <v>9.794906182243531E-06</v>
       </c>
       <c r="T17">
-        <v>2.994519834887927E-05</v>
+        <v>9.794906182243531E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H18">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I18">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J18">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>562.6354389205566</v>
+        <v>129.1418971508166</v>
       </c>
       <c r="R18">
-        <v>5063.718950285009</v>
+        <v>1162.27707435735</v>
       </c>
       <c r="S18">
-        <v>0.0003591600793261149</v>
+        <v>6.465471967770429E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003591600793261149</v>
+        <v>6.465471967770429E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H19">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I19">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J19">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>125.0548518701868</v>
+        <v>39.09898135492066</v>
       </c>
       <c r="R19">
-        <v>1125.493666831681</v>
+        <v>351.890832194286</v>
       </c>
       <c r="S19">
-        <v>7.982915296623135E-05</v>
+        <v>1.957485320379E-05</v>
       </c>
       <c r="T19">
-        <v>7.982915296623135E-05</v>
+        <v>1.957485320379E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H20">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>1593.171973979547</v>
+        <v>1894.301029885607</v>
       </c>
       <c r="R20">
-        <v>14338.54776581593</v>
+        <v>17048.70926897046</v>
       </c>
       <c r="S20">
-        <v>0.00101700627612871</v>
+        <v>0.0009483793004017052</v>
       </c>
       <c r="T20">
-        <v>0.00101700627612871</v>
+        <v>0.0009483793004017051</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H21">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>25513.12805126399</v>
+        <v>7256.112069893438</v>
       </c>
       <c r="R21">
-        <v>229618.1524613759</v>
+        <v>65305.00862904093</v>
       </c>
       <c r="S21">
-        <v>0.0162863845056215</v>
+        <v>0.003632762892441372</v>
       </c>
       <c r="T21">
-        <v>0.0162863845056215</v>
+        <v>0.003632762892441372</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H22">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I22">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J22">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>34666.45706599383</v>
+        <v>19779.25269750818</v>
       </c>
       <c r="R22">
-        <v>311998.1135939444</v>
+        <v>178013.2742775736</v>
       </c>
       <c r="S22">
-        <v>0.02212944050176643</v>
+        <v>0.009902456652765545</v>
       </c>
       <c r="T22">
-        <v>0.02212944050176643</v>
+        <v>0.009902456652765545</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H23">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I23">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J23">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>8458.817822798799</v>
+        <v>4925.384367670404</v>
       </c>
       <c r="R23">
-        <v>76129.36040518919</v>
+        <v>44328.45930903363</v>
       </c>
       <c r="S23">
-        <v>0.005399712620431901</v>
+        <v>0.002465887156859559</v>
       </c>
       <c r="T23">
-        <v>0.0053997126204319</v>
+        <v>0.002465887156859559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H24">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I24">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J24">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>101454.3181463105</v>
+        <v>32511.73004331275</v>
       </c>
       <c r="R24">
-        <v>913088.8633167947</v>
+        <v>292605.5703898147</v>
       </c>
       <c r="S24">
-        <v>0.06476367898779095</v>
+        <v>0.01627695456365139</v>
       </c>
       <c r="T24">
-        <v>0.06476367898779095</v>
+        <v>0.01627695456365139</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H25">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I25">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J25">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>22549.86772912665</v>
+        <v>9843.246497263191</v>
       </c>
       <c r="R25">
-        <v>202948.8095621398</v>
+        <v>88589.21847536872</v>
       </c>
       <c r="S25">
-        <v>0.01439477807854563</v>
+        <v>0.004928008315193562</v>
       </c>
       <c r="T25">
-        <v>0.01439477807854563</v>
+        <v>0.004928008315193562</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H26">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>2.622591468667889</v>
+        <v>18.75163559011644</v>
       </c>
       <c r="R26">
-        <v>23.603323218011</v>
+        <v>168.764720311048</v>
       </c>
       <c r="S26">
-        <v>1.674139406742473E-06</v>
+        <v>9.387981509684483E-06</v>
       </c>
       <c r="T26">
-        <v>1.674139406742473E-06</v>
+        <v>9.38798150968448E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H27">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I27">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J27">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>41.99829840035544</v>
+        <v>71.82806068785378</v>
       </c>
       <c r="R27">
-        <v>377.984685603199</v>
+        <v>646.452546190684</v>
       </c>
       <c r="S27">
-        <v>2.680974418172647E-05</v>
+        <v>3.596062340127199E-05</v>
       </c>
       <c r="T27">
-        <v>2.680974418172647E-05</v>
+        <v>3.596062340127198E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H28">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I28">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J28">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>57.06600168412466</v>
+        <v>195.7942971983173</v>
       </c>
       <c r="R28">
-        <v>513.5940151571219</v>
+        <v>1762.148674784856</v>
       </c>
       <c r="S28">
-        <v>3.642825935567916E-05</v>
+        <v>9.802415543784877E-05</v>
       </c>
       <c r="T28">
-        <v>3.642825935567916E-05</v>
+        <v>9.802415543784876E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H29">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I29">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J29">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>13.92443742383633</v>
+        <v>48.75624905793822</v>
       </c>
       <c r="R29">
-        <v>125.319936814527</v>
+        <v>438.806241521444</v>
       </c>
       <c r="S29">
-        <v>8.888707862610714E-06</v>
+        <v>2.440975148209208E-05</v>
       </c>
       <c r="T29">
-        <v>8.888707862610713E-06</v>
+        <v>2.440975148209208E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H30">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I30">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J30">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>167.0084796717919</v>
+        <v>321.8327523230333</v>
       </c>
       <c r="R30">
-        <v>1503.076317046127</v>
+        <v>2896.494770907299</v>
       </c>
       <c r="S30">
-        <v>0.0001066103815325506</v>
+        <v>0.0001611251409776751</v>
       </c>
       <c r="T30">
-        <v>0.0001066103815325506</v>
+        <v>0.0001611251409776751</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H31">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I31">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J31">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>37.12034337277144</v>
+        <v>97.43803568090533</v>
       </c>
       <c r="R31">
-        <v>334.083090354943</v>
+        <v>876.9423211281479</v>
       </c>
       <c r="S31">
-        <v>2.369588644461427E-05</v>
+        <v>4.878222344478888E-05</v>
       </c>
       <c r="T31">
-        <v>2.369588644461427E-05</v>
+        <v>4.878222344478888E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H32">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I32">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J32">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>18.61764870239611</v>
+        <v>8.974640597690444</v>
       </c>
       <c r="R32">
-        <v>167.558838321565</v>
+        <v>80.77176537921399</v>
       </c>
       <c r="S32">
-        <v>1.188463385393412E-05</v>
+        <v>4.493141922595265E-06</v>
       </c>
       <c r="T32">
-        <v>1.188463385393412E-05</v>
+        <v>4.493141922595264E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H33">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I33">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J33">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>298.1438684056206</v>
+        <v>34.37732278897077</v>
       </c>
       <c r="R33">
-        <v>2683.294815650585</v>
+        <v>309.395905100737</v>
       </c>
       <c r="S33">
-        <v>0.000190321064084762</v>
+        <v>1.7210961099597E-05</v>
       </c>
       <c r="T33">
-        <v>0.000190321064084762</v>
+        <v>1.7210961099597E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H34">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I34">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J34">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>405.1087578444033</v>
+        <v>93.70827627209533</v>
       </c>
       <c r="R34">
-        <v>3645.97882059963</v>
+        <v>843.374486448858</v>
       </c>
       <c r="S34">
-        <v>0.0002586024333665267</v>
+        <v>4.691492433921457E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002586024333665267</v>
+        <v>4.691492433921457E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H35">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I35">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J35">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>98.84890095641168</v>
+        <v>23.33502110168522</v>
       </c>
       <c r="R35">
-        <v>889.6401086077051</v>
+        <v>210.015189915167</v>
       </c>
       <c r="S35">
-        <v>6.310050283522404E-05</v>
+        <v>1.168264739243249E-05</v>
       </c>
       <c r="T35">
-        <v>6.310050283522402E-05</v>
+        <v>1.168264739243249E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H36">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I36">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J36">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>1185.585037546856</v>
+        <v>154.0310054973083</v>
       </c>
       <c r="R36">
-        <v>10670.26533792171</v>
+        <v>1386.279049475775</v>
       </c>
       <c r="S36">
-        <v>0.0007568218897660094</v>
+        <v>7.711541878986887E-05</v>
       </c>
       <c r="T36">
-        <v>0.0007568218897660094</v>
+        <v>7.711541878986887E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H37">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I37">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J37">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>263.5155039902605</v>
+        <v>46.63440405390433</v>
       </c>
       <c r="R37">
-        <v>2371.639535912345</v>
+        <v>419.709636485139</v>
       </c>
       <c r="S37">
-        <v>0.0001682159401447991</v>
+        <v>2.334745259256023E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001682159401447991</v>
+        <v>2.334745259256023E-05</v>
       </c>
     </row>
   </sheetData>
